--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.86234577458601</v>
+        <v>86.09667233333334</v>
       </c>
       <c r="N2">
-        <v>4.86234577458601</v>
+        <v>258.290017</v>
       </c>
       <c r="O2">
-        <v>0.8044897304857596</v>
+        <v>0.9236051571299395</v>
       </c>
       <c r="P2">
-        <v>0.8044897304857596</v>
+        <v>0.9236051571299394</v>
       </c>
       <c r="Q2">
-        <v>398.1900181553112</v>
+        <v>8681.763237897401</v>
       </c>
       <c r="R2">
-        <v>398.1900181553112</v>
+        <v>78135.86914107662</v>
       </c>
       <c r="S2">
-        <v>0.5390132346743187</v>
+        <v>0.6051447676161175</v>
       </c>
       <c r="T2">
-        <v>0.5390132346743187</v>
+        <v>0.6051447676161175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1816664611576</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N3">
-        <v>1.1816664611576</v>
+        <v>14.735767</v>
       </c>
       <c r="O3">
-        <v>0.1955102695142404</v>
+        <v>0.05269282395635592</v>
       </c>
       <c r="P3">
-        <v>0.1955102695142404</v>
+        <v>0.05269282395635591</v>
       </c>
       <c r="Q3">
-        <v>96.76970981396911</v>
+        <v>495.3054001418168</v>
       </c>
       <c r="R3">
-        <v>96.76970981396911</v>
+        <v>4457.748601276351</v>
       </c>
       <c r="S3">
-        <v>0.1309931237025082</v>
+        <v>0.03452426230186145</v>
       </c>
       <c r="T3">
-        <v>0.1309931237025082</v>
+        <v>0.03452426230186145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.049418834649</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>22.049418834649</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.1803979266563737</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.1803979266563737</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.86234577458601</v>
+        <v>2.209456</v>
       </c>
       <c r="N4">
-        <v>4.86234577458601</v>
+        <v>6.628368</v>
       </c>
       <c r="O4">
-        <v>0.8044897304857596</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="P4">
-        <v>0.8044897304857596</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="Q4">
-        <v>107.2118985027328</v>
+        <v>222.7957638395893</v>
       </c>
       <c r="R4">
-        <v>107.2118985027328</v>
+        <v>2005.161874556304</v>
       </c>
       <c r="S4">
-        <v>0.1451282793959759</v>
+        <v>0.01552952862686175</v>
       </c>
       <c r="T4">
-        <v>0.1451282793959759</v>
+        <v>0.01552952862686175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.1816664611576</v>
+        <v>86.09667233333334</v>
       </c>
       <c r="N5">
-        <v>1.1816664611576</v>
+        <v>258.290017</v>
       </c>
       <c r="O5">
-        <v>0.1955102695142404</v>
+        <v>0.9236051571299395</v>
       </c>
       <c r="P5">
-        <v>0.1955102695142404</v>
+        <v>0.9236051571299394</v>
       </c>
       <c r="Q5">
-        <v>26.05505872492142</v>
+        <v>2058.396601847382</v>
       </c>
       <c r="R5">
-        <v>26.05505872492142</v>
+        <v>18525.56941662644</v>
       </c>
       <c r="S5">
-        <v>0.0352696472603978</v>
+        <v>0.1434763767628859</v>
       </c>
       <c r="T5">
-        <v>0.0352696472603978</v>
+        <v>0.1434763767628859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2845703180103</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>18.2845703180103</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1495957149667994</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1495957149667994</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.86234577458601</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N6">
-        <v>4.86234577458601</v>
+        <v>14.735767</v>
       </c>
       <c r="O6">
-        <v>0.8044897304857596</v>
+        <v>0.05269282395635592</v>
       </c>
       <c r="P6">
-        <v>0.8044897304857596</v>
+        <v>0.05269282395635591</v>
       </c>
       <c r="Q6">
-        <v>88.90590322589816</v>
+        <v>117.4340885130485</v>
       </c>
       <c r="R6">
-        <v>88.90590322589816</v>
+        <v>1056.906796617436</v>
       </c>
       <c r="S6">
-        <v>0.1203482164154649</v>
+        <v>0.008185505899680593</v>
       </c>
       <c r="T6">
-        <v>0.1203482164154649</v>
+        <v>0.008185505899680593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2845703180103</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>18.2845703180103</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1495957149667994</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1495957149667994</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1816664611576</v>
+        <v>2.209456</v>
       </c>
       <c r="N7">
-        <v>1.1816664611576</v>
+        <v>6.628368</v>
       </c>
       <c r="O7">
-        <v>0.1955102695142404</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="P7">
-        <v>0.1955102695142404</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="Q7">
-        <v>21.60626350147052</v>
+        <v>52.82360629134932</v>
       </c>
       <c r="R7">
-        <v>21.60626350147052</v>
+        <v>475.412456622144</v>
       </c>
       <c r="S7">
-        <v>0.02924749855133444</v>
+        <v>0.003681962762389908</v>
       </c>
       <c r="T7">
-        <v>0.02924749855133444</v>
+        <v>0.003681962762389908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.15819666666667</v>
+      </c>
+      <c r="H8">
+        <v>87.47459000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="J8">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>86.09667233333334</v>
+      </c>
+      <c r="N8">
+        <v>258.290017</v>
+      </c>
+      <c r="O8">
+        <v>0.9236051571299395</v>
+      </c>
+      <c r="P8">
+        <v>0.9236051571299394</v>
+      </c>
+      <c r="Q8">
+        <v>2510.423704240893</v>
+      </c>
+      <c r="R8">
+        <v>22593.81333816803</v>
+      </c>
+      <c r="S8">
+        <v>0.1749840127509362</v>
+      </c>
+      <c r="T8">
+        <v>0.1749840127509362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.15819666666667</v>
+      </c>
+      <c r="H9">
+        <v>87.47459000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="J9">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.911922333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.735767</v>
+      </c>
+      <c r="O9">
+        <v>0.05269282395635592</v>
+      </c>
+      <c r="P9">
+        <v>0.05269282395635591</v>
+      </c>
+      <c r="Q9">
+        <v>143.2227974067256</v>
+      </c>
+      <c r="R9">
+        <v>1289.00517666053</v>
+      </c>
+      <c r="S9">
+        <v>0.009983055754813879</v>
+      </c>
+      <c r="T9">
+        <v>0.009983055754813877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.15819666666667</v>
+      </c>
+      <c r="H10">
+        <v>87.47459000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="J10">
+        <v>0.1894575960302029</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.209456</v>
+      </c>
+      <c r="N10">
+        <v>6.628368</v>
+      </c>
+      <c r="O10">
+        <v>0.02370201891370452</v>
+      </c>
+      <c r="P10">
+        <v>0.02370201891370452</v>
+      </c>
+      <c r="Q10">
+        <v>64.42375257434666</v>
+      </c>
+      <c r="R10">
+        <v>579.8137731691201</v>
+      </c>
+      <c r="S10">
+        <v>0.00449052752445286</v>
+      </c>
+      <c r="T10">
+        <v>0.00449052752445286</v>
       </c>
     </row>
   </sheetData>
